--- a/Config.xlsx
+++ b/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos-1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Encargado</t>
   </si>
@@ -101,6 +101,33 @@
   </si>
   <si>
     <t>Error en Transporte</t>
+  </si>
+  <si>
+    <t>Cesitar</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>Modificacion</t>
+  </si>
+  <si>
+    <t>Devolucion</t>
+  </si>
+  <si>
+    <t>Recargo Peaje</t>
   </si>
 </sst>
 </file>
@@ -438,32 +465,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -475,21 +502,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -508,8 +533,11 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -528,8 +556,11 @@
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -548,8 +579,11 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -568,8 +602,11 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -579,8 +616,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -590,13 +630,27 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -607,12 +661,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos-1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Encargado</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Propio</t>
   </si>
   <si>
-    <t>Camion - Planchon</t>
-  </si>
-  <si>
     <t>Brazo Grua</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Error en Transporte</t>
   </si>
   <si>
-    <t>Cesitar</t>
-  </si>
-  <si>
     <t>Casa</t>
   </si>
   <si>
@@ -128,6 +122,27 @@
   </si>
   <si>
     <t>Recargo Peaje</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\db_req.xlsx</t>
+  </si>
+  <si>
+    <t>Path_db</t>
+  </si>
+  <si>
+    <t>Path_remision base</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\Remisiones\Remision_Base.xlsx</t>
+  </si>
+  <si>
+    <t>Path_nuevas_remisiones</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\Remisiones\</t>
+  </si>
+  <si>
+    <t>Camion-Planchon</t>
   </si>
 </sst>
 </file>
@@ -472,12 +487,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -504,7 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -525,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -534,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -542,22 +559,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,16 +588,16 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -591,19 +608,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,13 +628,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,32 +642,32 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -661,21 +678,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>700</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos-1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Encargado</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Error en Transporte</t>
   </si>
   <si>
-    <t>Casa</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -143,13 +140,31 @@
   </si>
   <si>
     <t>Camion-Planchon</t>
+  </si>
+  <si>
+    <t>Correo_Operaciones</t>
+  </si>
+  <si>
+    <t>mafejim19@hotmail.com</t>
+  </si>
+  <si>
+    <t>Correo_Adm</t>
+  </si>
+  <si>
+    <t>Correo_Gerencia</t>
+  </si>
+  <si>
+    <t>operaciones@contenedoresdeantioquia.com</t>
+  </si>
+  <si>
+    <t>info@contenedoresdeantioquia.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +176,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,10 +206,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,8 +220,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,10 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -620,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,7 +679,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -662,12 +688,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -678,10 +699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>700</v>
@@ -699,33 +720,59 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos-1" sheetId="2" r:id="rId1"/>
@@ -25,15 +25,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Cesar</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cesar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lim Inf &lt; Km &lt;= Limite Sup</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Encargado</t>
   </si>
   <si>
-    <t>Tipo Contenedor</t>
-  </si>
-  <si>
     <t>Tipo Transporte</t>
   </si>
   <si>
@@ -118,9 +149,6 @@
     <t>Devolucion</t>
   </si>
   <si>
-    <t>Recargo Peaje</t>
-  </si>
-  <si>
     <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\db_req.xlsx</t>
   </si>
   <si>
@@ -130,41 +158,119 @@
     <t>Path_remision base</t>
   </si>
   <si>
-    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\Remisiones\Remision_Base.xlsx</t>
-  </si>
-  <si>
-    <t>Path_nuevas_remisiones</t>
-  </si>
-  <si>
-    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\Remisiones\</t>
-  </si>
-  <si>
     <t>Camion-Planchon</t>
   </si>
   <si>
     <t>Correo_Operaciones</t>
   </si>
   <si>
-    <t>mafejim19@hotmail.com</t>
-  </si>
-  <si>
     <t>Correo_Adm</t>
   </si>
   <si>
     <t>Correo_Gerencia</t>
   </si>
   <si>
-    <t>operaciones@contenedoresdeantioquia.com</t>
-  </si>
-  <si>
-    <t>info@contenedoresdeantioquia.com</t>
+    <t>Contenedor</t>
+  </si>
+  <si>
+    <t>TipoCont</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Oficina Estandar</t>
+  </si>
+  <si>
+    <t>Adaptacion</t>
+  </si>
+  <si>
+    <t>Bodega/Electricidad</t>
+  </si>
+  <si>
+    <t>Oficina/Bodega</t>
+  </si>
+  <si>
+    <t>Reglas Recargo Peaje</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Limite Inf</t>
+  </si>
+  <si>
+    <t>Limite Sup</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Datos Transporte Propio</t>
+  </si>
+  <si>
+    <t>Nombre Conductor</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Juan D Jimenez</t>
+  </si>
+  <si>
+    <t>MLP310</t>
+  </si>
+  <si>
+    <t>Paths Excel Files</t>
+  </si>
+  <si>
+    <t>Paths txt files - consecutivos</t>
+  </si>
+  <si>
+    <t>Movimientos/Devoluciones</t>
+  </si>
+  <si>
+    <t>Venta/Alaquiler/Modificacion</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\mov_dev_consecutivos.txt</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\vta_alq_mod_consecutivos.txt</t>
+  </si>
+  <si>
+    <t>Path_nuevas_remisiones_A</t>
+  </si>
+  <si>
+    <t>Path_nuevas_remisiones_B</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\Remision\Remision_Base.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\Remisiones_A\</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\Remisiones_B\</t>
+  </si>
+  <si>
+    <t>requerimientologisticocontant@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +294,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,12 +324,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,7 +354,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -506,34 +662,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -543,152 +699,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
+      <c r="H7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -698,81 +875,234 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
+        <v>123456789</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="10">
+        <v>310250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-  </hyperlinks>
+  <mergeCells count="3">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A21:F21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos-1" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Encargado</t>
   </si>
@@ -236,15 +236,9 @@
     <t>Paths txt files - consecutivos</t>
   </si>
   <si>
-    <t>Movimientos/Devoluciones</t>
-  </si>
-  <si>
     <t>Venta/Alaquiler/Modificacion</t>
   </si>
   <si>
-    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\mov_dev_consecutivos.txt</t>
-  </si>
-  <si>
     <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\vta_alq_mod_consecutivos.txt</t>
   </si>
   <si>
@@ -264,6 +258,27 @@
   </si>
   <si>
     <t>requerimientologisticocontant@gmail.com</t>
+  </si>
+  <si>
+    <t>Devoluciones</t>
+  </si>
+  <si>
+    <t>Movimientos</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\movto_consecutivos.txt</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\devol_consecutivos.txt</t>
+  </si>
+  <si>
+    <t>Path Remision C</t>
+  </si>
+  <si>
+    <t>C:\Users\Cesar\Proyectos\Cont de Antioquia - Logistica\Remisiones_C\</t>
+  </si>
+  <si>
+    <t>Precio x km</t>
   </si>
 </sst>
 </file>
@@ -370,13 +385,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -876,26 +891,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -910,56 +926,56 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>67</v>
+      <c r="B6" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>67</v>
+      <c r="B7" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>67</v>
+      <c r="B8" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1018,8 +1034,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6500</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
@@ -1070,36 +1090,63 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
